--- a/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2025-W49/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_HYDROGARDENS Ι.Κ.Ε_2025-W49.xlsx
+++ b/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2025-W49/XLSX/ΕΒΔΟΜΑΔΙΑΙΟ_ΣΗΜΕΙΩΜΑ_HYDROGARDENS Ι.Κ.Ε_2025-W49.xlsx
@@ -1,327 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markellabournaka/Desktop/Enimerwtika simeiwmata weekly/ΕΝΗΜΕΡΩΤΙΚΑ_ΣΗΜΕΙΩΜΑΤΑ_ΕΒΔΟΜΑΔΙΑΙΑ/2025-W49/XLSX/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3B73A9-4462-064D-BC72-65335997DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="15220" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy Production" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy Production" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Energy Production'!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Energy Production'!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
-  <si>
-    <t>Α.Μ. ΑΠΕ</t>
-  </si>
-  <si>
-    <t>Εταιρεία</t>
-  </si>
-  <si>
-    <t>ΑΦΜ</t>
-  </si>
-  <si>
-    <t>ΔΟΥ</t>
-  </si>
-  <si>
-    <t>Διεύθυνση</t>
-  </si>
-  <si>
-    <t>Φορέας Σωρευτικής Εκπροσώπησης ΑΠΕ (Φο.Σ.Ε.)
-Διεύθυνση: Φιλοπάππου 19, Αθήνα 11741, Ελλάδα 
-ΑΦΜ: 801961185 ,  ΓΕΜΗ: 167104201000           ΔΟΥ:ΦΑΕ Αθηνών , Email: info@greenvalue.gr</t>
-  </si>
-  <si>
-    <t>522SH70212</t>
-  </si>
-  <si>
-    <t>HYDROGARDENS Ι.Κ.Ε</t>
-  </si>
-  <si>
-    <t>ΚΑΛΑΜΑΡΙΑΣ</t>
-  </si>
-  <si>
-    <t>ΑΓΡΟΤΕΜΑΧΙΟ 533, ΕΠΑΝΟΜΗ ΘΕΡΜΗΣ</t>
-  </si>
-  <si>
-    <t>info@pk_energy.gr</t>
-  </si>
-  <si>
-    <t>ΣΗΘΥΑ</t>
-  </si>
-  <si>
-    <t>Ημερομηνία</t>
-  </si>
-  <si>
-    <t>Έκδοση</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Περίοδος Εκκαθάρισης </t>
-  </si>
-  <si>
-    <t>ΣΥΝΟΛΟ ΜΕ ΦΠΑ</t>
-  </si>
-  <si>
-    <t>Περίοδος Εκκαθάρισης</t>
-  </si>
-  <si>
-    <t>Παραγωγή Ενέργειας βάσει μετρήσεων (kWh)</t>
-  </si>
-  <si>
-    <t>Αξία Ενέργειας βάσει μετρήσεων</t>
-  </si>
-  <si>
-    <t>Προμήθεια GREEN VALUE</t>
-  </si>
-  <si>
-    <t>Μεσοσταθμική Τιμή Αγοράς  κατά τις ώρες παραγωγής του σταθμού</t>
-  </si>
-  <si>
-    <t>Σύνολο Εβδομάδας</t>
-  </si>
-  <si>
-    <t>Ανάλυση Χρεώσεων και Υπηρεσίων ΦοΣΕ</t>
-  </si>
-  <si>
-    <t>Υπολογισμός προς καταβολή</t>
-  </si>
-  <si>
-    <t>Μοναδιαία Χρέωση ΦοΣΕ</t>
-  </si>
-  <si>
-    <t>Παραγωγή Ενέργειας βάσει Μετρήσεων (ΜWh)</t>
-  </si>
-  <si>
-    <t>Σύνολο</t>
-  </si>
-  <si>
-    <t>Αξία Ενέργειας βάσει Μετρήσεων</t>
-  </si>
-  <si>
-    <t>ΦΠΑ (6%)</t>
-  </si>
-  <si>
-    <t>Χρέωση ΦοΣΕ με ΦΠΑ (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Συνολικό Ποσό προς καταβολή </t>
-  </si>
-  <si>
-    <t>Στοιχεία Τράπεζας</t>
-  </si>
-  <si>
-    <t>ΙΒΑΝ</t>
-  </si>
-  <si>
-    <t>GR8601105060000050600510049</t>
-  </si>
-  <si>
-    <t>Υπολογισμός Τιμολόγησης</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΓΕΝΙΚΟ ΣΥΝΟΛΟ </t>
-  </si>
-  <si>
-    <t>Σημείωση: Το τελικό ποσό πίστωσης παραγωγού προκύπτει από το άθροισμα των γινομένων της παραγόμενης ενέργειας επί της αντίστοιχης Τιμής Εκκαθάρισης Αγοράς Επόμενης Ημέρας ανά ώρα αφαιρώντας την πληρωμή υπηρεσιών ΦοΣΕ και Διαχειριστικών εξόδων. Οι πληρωμές της GREEN VALUE Α.Ε. πραγματοποιουνται εντός 2 εργάσιμων ημερών μετά την παραλαβή του ενημερωτικού σημειώματος.</t>
-  </si>
-  <si>
-    <t>Αρχική</t>
-  </si>
-  <si>
-    <t>Τεχνολογία</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Ανάλυση Εβδομαδιαίας Εκκαθάρισης Παραγωγής Ενέργειας Σταθμού</t>
-  </si>
-  <si>
-    <t>01/12/25</t>
-  </si>
-  <si>
-    <t>02/12/25</t>
-  </si>
-  <si>
-    <t>03/12/25</t>
-  </si>
-  <si>
-    <t>04/12/25</t>
-  </si>
-  <si>
-    <t>05/12/25</t>
-  </si>
-  <si>
-    <t>06/12/25</t>
-  </si>
-  <si>
-    <t>07/12/25</t>
-  </si>
-  <si>
-    <t>12/12/2025</t>
-  </si>
-  <si>
-    <t>01/12/25-07/12/25</t>
-  </si>
-  <si>
-    <t>Ενημερωτικό Σημείωμα Εβδομάδας 01/12/25–07/12/25</t>
-  </si>
-  <si>
-    <t>13/12/2025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#.##&quot; &quot;[$€-2]&quot;/MWh&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$€-2]\ 0.00"/>
+    <numFmt numFmtId="168" formatCode="#.##&quot; &quot;[$€-2]&quot;/MWh&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
+      <name val="Avenir Next Regular"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="10"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="10"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="10"/>
+      <sz val="15"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <sz val="16"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color indexed="10"/>
+      <sz val="15"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
       <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <sz val="18"/>
     </font>
     <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
     </font>
     <font>
-      <sz val="14"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
       <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
-      <charset val="161"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Avenir Next Demi Bold"/>
-      <family val="2"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="15"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="15"/>
     </font>
     <font>
-      <b/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <name val="Avenir Next Regular"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Avenir Next Regular"/>
     </font>
     <font>
       <sz val="13"/>
-      <name val="Avenir Next Regular"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="15"/>
-      <name val="Avenir Next Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
+      <b val="1"/>
+      <sz val="13"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -361,7 +219,67 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -370,6 +288,280 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -379,34 +571,63 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -415,13 +636,48 @@
     <border>
       <left/>
       <right style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,254 +687,338 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+  <cellXfs count="114">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +1026,7 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -716,7 +1056,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -746,7 +1086,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -776,7 +1116,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -804,7 +1144,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -832,7 +1172,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -998,7 +1338,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -1024,7 +1364,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -1050,7 +1390,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -1076,7 +1416,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -1130,7 +1470,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="PivotStyleCustom01" count="17" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="PivotStyleCustom01" count="17">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -1218,69 +1558,55 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1469570</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1407893</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="LOGO.png" descr="LOGO.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>10701</colOff>
+      <row>0</row>
+      <rowOff>151583</rowOff>
+    </from>
+    <to>
+      <col>2</col>
+      <colOff>1469571</colOff>
+      <row>0</row>
+      <rowOff>1426036</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="LOGO.png" descr="LOGO.png"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="83271" y="133440"/>
-          <a:ext cx="3055442" cy="1274453"/>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="65130" y="151583"/>
+          <a:ext cx="2887620" cy="1274453"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
         </a:prstGeom>
-        <a:ln w="12700" cap="flat">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
           <a:noFill/>
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,532 +2650,686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.6640625" defaultRowHeight="21.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="36.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5" customWidth="1"/>
-    <col min="15" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="44.83203125" customWidth="1"/>
-    <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="55.6640625" customWidth="1"/>
-    <col min="20" max="20" width="44.83203125" customWidth="1"/>
-    <col min="21" max="21" width="31" customWidth="1"/>
-    <col min="22" max="22" width="44.83203125" customWidth="1"/>
-    <col min="23" max="23" width="31" customWidth="1"/>
-    <col min="24" max="25" width="41.6640625" customWidth="1"/>
+    <col width="0.83203125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.5" customWidth="1" style="5" min="2" max="2"/>
+    <col width="22.5" customWidth="1" style="5" min="3" max="3"/>
+    <col width="19.83203125" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.83203125" customWidth="1" style="5" min="5" max="5"/>
+    <col width="21.6640625" customWidth="1" style="5" min="6" max="6"/>
+    <col width="33.5" customWidth="1" style="37" min="7" max="7"/>
+    <col width="20.33203125" customWidth="1" style="5" min="8" max="8"/>
+    <col width="19.6640625" customWidth="1" style="4" min="9" max="9"/>
+    <col width="32.6640625" customWidth="1" style="4" min="10" max="10"/>
+    <col width="29" customWidth="1" style="4" min="11" max="11"/>
+    <col width="27.33203125" customWidth="1" style="4" min="12" max="12"/>
+    <col width="36.83203125" customWidth="1" style="4" min="13" max="13"/>
+    <col width="41.5" customWidth="1" style="5" min="14" max="14"/>
+    <col width="21.5" customWidth="1" style="5" min="15" max="15"/>
+    <col width="44.83203125" customWidth="1" style="5" min="16" max="16"/>
+    <col width="31" customWidth="1" style="5" min="17" max="17"/>
+    <col width="20.1640625" customWidth="1" style="5" min="18" max="18"/>
+    <col width="55.6640625" customWidth="1" style="5" min="19" max="19"/>
+    <col width="44.83203125" customWidth="1" style="5" min="20" max="20"/>
+    <col width="31" customWidth="1" style="5" min="21" max="21"/>
+    <col width="44.83203125" customWidth="1" style="5" min="22" max="22"/>
+    <col width="31" customWidth="1" style="5" min="23" max="23"/>
+    <col width="41.6640625" customWidth="1" style="5" min="24" max="24"/>
+    <col width="41.6640625" customWidth="1" style="5" min="25" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="146" customHeight="1">
-      <c r="B1" s="1"/>
-      <c r="D1" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="19"/>
+    <row r="1" ht="159" customHeight="1" s="78">
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="79" t="inlineStr">
+        <is>
+          <t>Ενημερωτικό Σημείωμα Εβδομάδας
+01/12/25 – 07/12/25</t>
+        </is>
+      </c>
+      <c r="G1" s="80" t="inlineStr">
+        <is>
+          <t>Φορέας Σωρευτικής Εκπροσώπησης ΑΠΕ (Φο.Σ.Ε.)
+Διεύθυνση: Φιλοπάππου 19, Αθήνα 11741, Ελλάδα
+ΑΦΜ: 801961185
+ΓΕΜΗ: 167104201000
+ΔΟΥ:ΦΑΕ Αθηνών
+Email: info@greenvalue.gr</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="2:13" ht="26" customHeight="1">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>38</v>
-      </c>
+    <row r="2" ht="37" customHeight="1" s="78">
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="H2" s="4" t="n"/>
     </row>
-    <row r="3" spans="2:13" s="3" customFormat="1" ht="67" customHeight="1">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11">
+    <row r="3" ht="38" customFormat="1" customHeight="1" s="39">
+      <c r="B3" s="54" t="inlineStr">
+        <is>
+          <t>Α.Μ. ΑΠΕ</t>
+        </is>
+      </c>
+      <c r="C3" s="54" t="inlineStr">
+        <is>
+          <t>Εταιρεία</t>
+        </is>
+      </c>
+      <c r="D3" s="54" t="inlineStr">
+        <is>
+          <t>ΑΦΜ</t>
+        </is>
+      </c>
+      <c r="E3" s="54" t="inlineStr">
+        <is>
+          <t>ΔΟΥ</t>
+        </is>
+      </c>
+      <c r="F3" s="54" t="inlineStr">
+        <is>
+          <t>Διεύθυνση</t>
+        </is>
+      </c>
+      <c r="G3" s="54" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H3" s="54" t="inlineStr">
+        <is>
+          <t>Τεχνολογία</t>
+        </is>
+      </c>
+      <c r="I3" s="38" t="n"/>
+      <c r="J3" s="38" t="n"/>
+      <c r="K3" s="38" t="n"/>
+      <c r="L3" s="38" t="n"/>
+      <c r="M3" s="38" t="n"/>
+    </row>
+    <row r="4" ht="74.5" customFormat="1" customHeight="1" s="11">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>522SH70212</t>
+        </is>
+      </c>
+      <c r="C4" s="82" t="inlineStr">
+        <is>
+          <t>HYDROGARDENS Ι.Κ.Ε</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="n">
         <v>802667720</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>ΚΑΛΑΜΑΡΙΑΣ</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>ΑΓΡΟΤΕΜΑΧΙΟ 533, ΕΠΑΝΟΜΗ ΘΕΡΜΗΣ</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>info@pk_energy.gr</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>ΣΗΘΥΑ</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
     </row>
-    <row r="4" spans="2:13" ht="39" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="28"/>
+    <row r="5" ht="47" customFormat="1" customHeight="1" s="2">
+      <c r="B5" s="54" t="inlineStr">
+        <is>
+          <t>Ημερομηνία</t>
+        </is>
+      </c>
+      <c r="C5" s="54" t="inlineStr">
+        <is>
+          <t>Έκδοση</t>
+        </is>
+      </c>
+      <c r="D5" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Περίοδος Εκκαθάρισης </t>
+        </is>
+      </c>
+      <c r="G5" s="54" t="inlineStr">
+        <is>
+          <t>ΣΥΝΟΛΟ ΜΕ ΦΠΑ</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
     </row>
-    <row r="5" spans="2:13" s="3" customFormat="1" ht="37" customHeight="1">
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52">
-        <f>H27</f>
-        <v>20636.69312838</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+    <row r="6" ht="60.75" customFormat="1" customHeight="1" s="11">
+      <c r="B6" s="83" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="84" t="inlineStr">
+        <is>
+          <t>01/12/25 - 07/12/25</t>
+        </is>
+      </c>
+      <c r="E6" s="85" t="n"/>
+      <c r="F6" s="86" t="n"/>
+      <c r="G6" s="87">
+        <f>H30</f>
+        <v/>
+      </c>
+      <c r="H6" s="86" t="n"/>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="n"/>
+      <c r="L6" s="10" t="n"/>
+      <c r="M6" s="10" t="n"/>
     </row>
-    <row r="6" spans="2:13" ht="43.25" customHeight="1" thickBot="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+    <row r="7" ht="60.75" customFormat="1" customHeight="1" s="11">
+      <c r="B7" s="88" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="89" t="n"/>
+      <c r="E7" s="89" t="n"/>
+      <c r="F7" s="89" t="n"/>
+      <c r="G7" s="90" t="n"/>
+      <c r="H7" s="91" t="n"/>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
+      <c r="L7" s="10" t="n"/>
+      <c r="M7" s="10" t="n"/>
     </row>
-    <row r="7" spans="2:13" s="5" customFormat="1" ht="53" customHeight="1">
-      <c r="C7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+    <row r="8" ht="43" customHeight="1" s="78" thickBot="1">
+      <c r="B8" s="18" t="n"/>
+      <c r="C8" s="53" t="inlineStr">
+        <is>
+          <t>Ανάλυση Εβδομαδιαίας Εκκαθάρισης Παραγωγής Ενέργειας Σταθμού</t>
+        </is>
+      </c>
+      <c r="D8" s="92" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="92" t="n"/>
+      <c r="G8" s="92" t="n"/>
+      <c r="H8" s="19" t="n"/>
     </row>
-    <row r="8" spans="2:13" ht="31.75" customHeight="1">
-      <c r="C8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="21">
-        <v>23518.35</v>
-      </c>
-      <c r="E8" s="21">
-        <v>3132.7677629999998</v>
-      </c>
-      <c r="F8" s="21">
+    <row r="9" ht="53.5" customFormat="1" customHeight="1" s="20">
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Περίοδος Εκκαθάρισης</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>Παραγωγή Ενέργειας βάσει μετρήσεων (kWh)</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>Αξία Ενέργειας βάσει μετρήσεων (€)</t>
+        </is>
+      </c>
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>Προμήθεια GREEN VALUE (€)</t>
+        </is>
+      </c>
+      <c r="G9" s="23" t="inlineStr">
+        <is>
+          <t>Μεσοσταθμική Τιμή Αγοράς  κατά τις ώρες παραγωγής του σταθμού</t>
+        </is>
+      </c>
+      <c r="H9" s="24" t="n"/>
+      <c r="I9" s="93" t="n"/>
+    </row>
+    <row r="10" ht="31.75" customHeight="1" s="78">
+      <c r="C10" s="94" t="inlineStr">
+        <is>
+          <t>01/12/25</t>
+        </is>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>22538.19</v>
+      </c>
+      <c r="E10" s="26" t="n">
+        <v>3004.6092219</v>
+      </c>
+      <c r="F10" s="26" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G10" s="95" t="n">
+        <v>133.31</v>
+      </c>
+      <c r="H10" s="96" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="78">
+      <c r="C11" s="94" t="inlineStr">
+        <is>
+          <t>02/12/25</t>
+        </is>
+      </c>
+      <c r="D11" s="26" t="n">
+        <v>20669.25</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>2569.0863966</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G11" s="95" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="H11" s="96" t="n"/>
+    </row>
+    <row r="12" ht="28.5" customHeight="1" s="78">
+      <c r="C12" s="94" t="inlineStr">
+        <is>
+          <t>03/12/25</t>
+        </is>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>23524.23</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>3458.5073325</v>
+      </c>
+      <c r="F12" s="26" t="n">
         <v>5.88</v>
       </c>
-      <c r="G8" s="35">
-        <v>132.21</v>
-      </c>
-      <c r="H8" s="36"/>
+      <c r="G12" s="95" t="n">
+        <v>147.02</v>
+      </c>
+      <c r="H12" s="96" t="n"/>
     </row>
-    <row r="9" spans="2:13" ht="30" customHeight="1">
-      <c r="C9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="21">
-        <v>20669.25</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2569.0863966000002</v>
-      </c>
-      <c r="F9" s="21">
-        <v>5.17</v>
-      </c>
-      <c r="G9" s="35">
-        <v>124.3</v>
-      </c>
-      <c r="H9" s="36"/>
+    <row r="13" ht="28.5" customHeight="1" s="78">
+      <c r="C13" s="94" t="inlineStr">
+        <is>
+          <t>04/12/25</t>
+        </is>
+      </c>
+      <c r="D13" s="26" t="n">
+        <v>23521.95</v>
+      </c>
+      <c r="E13" s="26" t="n">
+        <v>2784.4651044</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="G13" s="95" t="n">
+        <v>118.38</v>
+      </c>
+      <c r="H13" s="96" t="n"/>
     </row>
-    <row r="10" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C10" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="21">
-        <v>23524.23</v>
-      </c>
-      <c r="E10" s="21">
-        <v>3458.5073324999998</v>
-      </c>
-      <c r="F10" s="21">
+    <row r="14" ht="28.5" customHeight="1" s="78">
+      <c r="C14" s="94" t="inlineStr">
+        <is>
+          <t>05/12/25</t>
+        </is>
+      </c>
+      <c r="D14" s="26" t="n">
+        <v>23524.35</v>
+      </c>
+      <c r="E14" s="26" t="n">
+        <v>2958.1028865</v>
+      </c>
+      <c r="F14" s="26" t="n">
         <v>5.88</v>
       </c>
-      <c r="G10" s="35">
-        <v>147.02000000000001</v>
-      </c>
-      <c r="H10" s="36"/>
+      <c r="G14" s="95" t="n">
+        <v>125.75</v>
+      </c>
+      <c r="H14" s="96" t="n"/>
     </row>
-    <row r="11" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="21">
-        <v>23521.95</v>
-      </c>
-      <c r="E11" s="21">
-        <v>2784.4651044000002</v>
-      </c>
-      <c r="F11" s="21">
+    <row r="15" ht="28.5" customHeight="1" s="78">
+      <c r="C15" s="94" t="inlineStr">
+        <is>
+          <t>06/12/25</t>
+        </is>
+      </c>
+      <c r="D15" s="26" t="n">
+        <v>23521.74</v>
+      </c>
+      <c r="E15" s="26" t="n">
+        <v>2379.693552</v>
+      </c>
+      <c r="F15" s="26" t="n">
         <v>5.88</v>
       </c>
-      <c r="G11" s="35">
-        <v>118.38</v>
-      </c>
-      <c r="H11" s="36"/>
+      <c r="G15" s="95" t="n">
+        <v>101.17</v>
+      </c>
+      <c r="H15" s="96" t="n"/>
     </row>
-    <row r="12" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C12" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="21">
-        <v>23524.35</v>
-      </c>
-      <c r="E12" s="21">
-        <v>2958.1028864999998</v>
-      </c>
-      <c r="F12" s="21">
+    <row r="16" ht="28.5" customHeight="1" s="78">
+      <c r="C16" s="94" t="inlineStr">
+        <is>
+          <t>07/12/25</t>
+        </is>
+      </c>
+      <c r="D16" s="26" t="n">
+        <v>23520.54</v>
+      </c>
+      <c r="E16" s="26" t="n">
+        <v>2185.955388</v>
+      </c>
+      <c r="F16" s="26" t="n">
         <v>5.88</v>
       </c>
-      <c r="G12" s="35">
-        <v>125.75</v>
-      </c>
-      <c r="H12" s="36"/>
+      <c r="G16" s="95" t="n">
+        <v>92.94</v>
+      </c>
+      <c r="H16" s="96" t="n"/>
     </row>
-    <row r="13" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="21">
-        <v>23521.74</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2379.6935520000002</v>
-      </c>
-      <c r="F13" s="21">
-        <v>5.88</v>
-      </c>
-      <c r="G13" s="35">
-        <v>101.17</v>
-      </c>
-      <c r="H13" s="36"/>
+    <row r="17" ht="28.5" customHeight="1" s="78" thickBot="1">
+      <c r="C17" s="97" t="inlineStr">
+        <is>
+          <t>Σύνολο Εβδομάδας</t>
+        </is>
+      </c>
+      <c r="D17" s="98" t="n">
+        <v>160820.25</v>
+      </c>
+      <c r="E17" s="98" t="n">
+        <v>19340.42</v>
+      </c>
+      <c r="F17" s="98" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="G17" s="99" t="n">
+        <v>120.26</v>
+      </c>
+      <c r="H17" s="96" t="n"/>
     </row>
-    <row r="14" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="21">
-        <v>23520.54</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2185.9553879999999</v>
-      </c>
-      <c r="F14" s="21">
-        <v>5.88</v>
-      </c>
-      <c r="G14" s="35">
-        <v>92.94</v>
-      </c>
-      <c r="H14" s="36"/>
+    <row r="18" ht="28.5" customHeight="1" s="78">
+      <c r="C18" s="32" t="n"/>
+      <c r="D18" s="33" t="n"/>
+      <c r="E18" s="33" t="n"/>
+      <c r="F18" s="34" t="n"/>
+      <c r="G18" s="100" t="n"/>
+      <c r="H18" s="96" t="n"/>
     </row>
-    <row r="15" spans="2:13" ht="57" customHeight="1" thickBot="1">
-      <c r="C15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="25">
-        <f>SUM(D8:D14)</f>
-        <v>161800.41</v>
-      </c>
-      <c r="E15" s="25">
-        <f>SUM(E8:E14)</f>
-        <v>19468.578422999999</v>
-      </c>
-      <c r="F15" s="25">
-        <f>SUM(F8:F14)</f>
-        <v>40.450000000000003</v>
-      </c>
-      <c r="G15" s="50">
-        <f>GEOMEAN(G8:H14)</f>
-        <v>119.01267822677583</v>
-      </c>
-      <c r="H15" s="51"/>
+    <row r="19" ht="49" customHeight="1" s="78" thickBot="1">
+      <c r="B19" s="40" t="n"/>
+      <c r="C19" s="40" t="n"/>
+      <c r="D19" s="40" t="n"/>
     </row>
-    <row r="16" spans="2:13" ht="28.75" customHeight="1"/>
-    <row r="17" spans="2:8" ht="34" customHeight="1">
-      <c r="B17" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="30"/>
+    <row r="20" ht="31" customHeight="1" s="78">
+      <c r="B20" s="68" t="inlineStr">
+        <is>
+          <t>Ανάλυση Χρεώσεων και Υπηρεσίων ΦοΣΕ</t>
+        </is>
+      </c>
+      <c r="C20" s="101" t="n"/>
+      <c r="D20" s="102" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="103" t="inlineStr">
+        <is>
+          <t>Υπολογισμός προς καταβολή</t>
+        </is>
+      </c>
+      <c r="G20" s="101" t="n"/>
+      <c r="H20" s="104" t="n"/>
+      <c r="I20" s="44" t="n"/>
     </row>
-    <row r="18" spans="2:8" ht="55" customHeight="1">
-      <c r="B18" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="12">
+    <row r="21" ht="36" customHeight="1" s="78">
+      <c r="B21" s="59" t="inlineStr">
+        <is>
+          <t>Μοναδιαία Χρέωση ΦοΣΕ</t>
+        </is>
+      </c>
+      <c r="C21" s="86" t="n"/>
+      <c r="D21" s="105" t="n">
         <v>0.25</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="18">
-        <v>161.80000000000001</v>
-      </c>
+      <c r="E21" s="43" t="n"/>
+      <c r="F21" s="59" t="inlineStr">
+        <is>
+          <t>Παραγωγή Ενέργειας βάσει Μετρήσεων (ΜWh)</t>
+        </is>
+      </c>
+      <c r="G21" s="86" t="n"/>
+      <c r="H21" s="106">
+        <f>D17/1000</f>
+        <v/>
+      </c>
+      <c r="I21" s="44" t="n"/>
     </row>
-    <row r="19" spans="2:8" ht="52" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="18">
-        <f>F15</f>
-        <v>40.450000000000003</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="18">
-        <f>E15</f>
-        <v>19468.578422999999</v>
-      </c>
+    <row r="22" ht="71.5" customHeight="1" s="78" thickBot="1">
+      <c r="B22" s="61" t="inlineStr">
+        <is>
+          <t>Σύνολο (€)</t>
+        </is>
+      </c>
+      <c r="C22" s="107" t="n"/>
+      <c r="D22" s="42" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E22" s="40" t="n"/>
+      <c r="F22" s="59" t="inlineStr">
+        <is>
+          <t>Αξία Ενέργειας βάσει Μετρήσεων (€)</t>
+        </is>
+      </c>
+      <c r="G22" s="86" t="n"/>
+      <c r="H22" s="46">
+        <f>E17</f>
+        <v/>
+      </c>
+      <c r="I22" s="44" t="n"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1">
-      <c r="F20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="13">
-        <f>H19*6%</f>
-        <v>1168.1147053799998</v>
-      </c>
+    <row r="23" ht="30" customHeight="1" s="78">
+      <c r="E23" s="40" t="n"/>
+      <c r="F23" s="59" t="inlineStr">
+        <is>
+          <t>ΦΠΑ (6%)</t>
+        </is>
+      </c>
+      <c r="G23" s="86" t="n"/>
+      <c r="H23" s="46">
+        <f>H22*6%</f>
+        <v/>
+      </c>
+      <c r="I23" s="44" t="n"/>
     </row>
-    <row r="21" spans="2:8" ht="29.75" customHeight="1">
-      <c r="F21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="13">
-        <f>-(D19*1.24)</f>
-        <v>-50.158000000000001</v>
-      </c>
+    <row r="24" ht="29.75" customHeight="1" s="78">
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="59" t="inlineStr">
+        <is>
+          <t>Χρέωση ΦοΣΕ με ΦΠΑ (24%)</t>
+        </is>
+      </c>
+      <c r="G24" s="86" t="n"/>
+      <c r="H24" s="46">
+        <f>-(D22*1.24)</f>
+        <v/>
+      </c>
+      <c r="I24" s="44" t="n"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1">
-      <c r="F22" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="14">
-        <f>H19+H20+H21</f>
-        <v>20586.535128380001</v>
-      </c>
+    <row r="25" ht="30" customHeight="1" s="78" thickBot="1">
+      <c r="E25" s="40" t="n"/>
+      <c r="F25" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Συνολικό Ποσό προς καταβολή </t>
+        </is>
+      </c>
+      <c r="G25" s="107" t="n"/>
+      <c r="H25" s="47">
+        <f>H22+H23+H24</f>
+        <v/>
+      </c>
+      <c r="I25" s="44" t="n"/>
     </row>
-    <row r="23" spans="2:8" ht="21.5" customHeight="1">
-      <c r="B23" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="30"/>
+    <row r="26" ht="37" customHeight="1" s="78" thickBot="1">
+      <c r="B26" s="40" t="n"/>
+      <c r="C26" s="40" t="n"/>
+      <c r="D26" s="40" t="n"/>
+      <c r="F26" s="40" t="n"/>
+      <c r="G26" s="50" t="n"/>
+      <c r="H26" s="40" t="n"/>
     </row>
-    <row r="24" spans="2:8" ht="36" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="F24" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="30"/>
+    <row r="27" ht="36" customHeight="1" s="78">
+      <c r="B27" s="68" t="inlineStr">
+        <is>
+          <t>Στοιχεία Τράπεζας</t>
+        </is>
+      </c>
+      <c r="C27" s="101" t="n"/>
+      <c r="D27" s="102" t="n"/>
+      <c r="E27" s="40" t="n"/>
+      <c r="F27" s="103" t="inlineStr">
+        <is>
+          <t>Υπολογισμός Τιμολόγησης</t>
+        </is>
+      </c>
+      <c r="G27" s="101" t="n"/>
+      <c r="H27" s="104" t="n"/>
+      <c r="I27" s="44" t="n"/>
     </row>
-    <row r="25" spans="2:8" ht="25.25" customHeight="1">
-      <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="F25" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="13">
-        <f>H19</f>
-        <v>19468.578422999999</v>
-      </c>
+    <row r="28" ht="25.25" customHeight="1" s="78">
+      <c r="B28" s="48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ΙΒΑΝ</t>
+        </is>
+      </c>
+      <c r="C28" s="108" t="inlineStr">
+        <is>
+          <t>GR8601105060000050600510049</t>
+        </is>
+      </c>
+      <c r="D28" s="109" t="n"/>
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="59" t="inlineStr">
+        <is>
+          <t>Αξία Ενέργειας βάσει Μετρήσεων</t>
+        </is>
+      </c>
+      <c r="G28" s="86" t="n"/>
+      <c r="H28" s="46">
+        <f>H22</f>
+        <v/>
+      </c>
+      <c r="I28" s="44" t="n"/>
     </row>
-    <row r="26" spans="2:8" ht="28.5" customHeight="1">
-      <c r="F26" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="13">
-        <f>H25*6%</f>
-        <v>1168.1147053799998</v>
-      </c>
+    <row r="29" ht="28.5" customHeight="1" s="78" thickBot="1">
+      <c r="B29" s="49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ημερομηνία</t>
+        </is>
+      </c>
+      <c r="C29" s="110" t="inlineStr">
+        <is>
+          <t>17/01/26</t>
+        </is>
+      </c>
+      <c r="D29" s="111" t="n"/>
+      <c r="E29" s="40" t="n"/>
+      <c r="F29" s="59" t="inlineStr">
+        <is>
+          <t>ΦΠΑ (6%)</t>
+        </is>
+      </c>
+      <c r="G29" s="86" t="n"/>
+      <c r="H29" s="46">
+        <f>H28*6%</f>
+        <v/>
+      </c>
+      <c r="I29" s="44" t="n"/>
     </row>
-    <row r="27" spans="2:8" ht="28.5" customHeight="1">
-      <c r="F27" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="13">
-        <f>H25+H26</f>
-        <v>20636.69312838</v>
-      </c>
+    <row r="30" ht="28.5" customHeight="1" s="78" thickBot="1">
+      <c r="B30" s="40" t="n"/>
+      <c r="C30" s="40" t="n"/>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ΓΕΝΙΚΟ ΣΥΝΟΛΟ </t>
+        </is>
+      </c>
+      <c r="G30" s="107" t="n"/>
+      <c r="H30" s="42">
+        <f>H28+H29</f>
+        <v/>
+      </c>
+      <c r="I30" s="44" t="n"/>
     </row>
-    <row r="28" spans="2:8" ht="28.75" customHeight="1"/>
-    <row r="29" spans="2:8" ht="38.25" customHeight="1">
-      <c r="B29" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+    <row r="31" ht="28.75" customHeight="1" s="78"/>
+    <row r="32" ht="38.25" customHeight="1" s="78">
+      <c r="B32" s="112" t="inlineStr">
+        <is>
+          <t>Σημείωση: Το τελικό ποσό πίστωσης παραγωγού προκύπτει από το άθροισμα των γινομένων της παραγόμενης ενέργειας επί της αντίστοιχης Τιμής Εκκαθάρισης Αγοράς Επόμενης Ημέρας ανά 15', αφαιρώντας την πληρωμή υπηρεσιών ΦοΣΕ και Διαχειριστικών εξόδων. Οι πληρωμές της GREEN VALUE Α.Ε. πραγματοποιουνται εντός 2 εργάσιμων ημερών μετά την παραλαβή του ενημερωτικού σημειώματος.</t>
+        </is>
+      </c>
     </row>
-    <row r="30" spans="2:8" ht="39" customHeight="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+    <row r="33" ht="39" customHeight="1" s="78"/>
+    <row r="34" ht="28.75" customHeight="1" s="78"/>
+    <row r="36" ht="28.75" customHeight="1" s="78"/>
+    <row r="38" ht="36" customHeight="1" s="78"/>
+    <row r="39" ht="28.5" customHeight="1" s="78"/>
+    <row r="40" ht="28.5" customHeight="1" s="78"/>
+    <row r="41" ht="28.5" customHeight="1" s="78"/>
+    <row r="43">
+      <c r="D43" s="113" t="n"/>
     </row>
-    <row r="31" spans="2:8" ht="28.75" customHeight="1"/>
-    <row r="33" ht="28.75" customHeight="1"/>
-    <row r="35" ht="36" customHeight="1"/>
-    <row r="36" ht="28.5" customHeight="1"/>
-    <row r="37" ht="28.5" customHeight="1"/>
-    <row r="38" ht="28.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B29:H30"/>
+  <mergeCells count="26">
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B32:H33"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
-  <pageMargins left="0.41666700000000001" right="0.41666700000000001" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="portrait"/>
+  <pageMargins left="0.416667" right="0.416667" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" scale="59" fitToHeight="0" fitToWidth="1"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Avenir Next Regular,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>